--- a/PLScombined/PLScombined_predicted_factors_matrix_12.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.8095483625982509</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.7854145762057635</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.7761762607243112</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.7796034349482566</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7934432237888974</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.815764313615391</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.8449591843640516</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.8797012956748539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.9188918901798783</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.9616122326923676</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.006717358219619</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.053844320859502</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.102431063662622</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.151990667084196</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.201592598936579</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.2512931815407</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.300802842914236</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.349866458780299</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.398263553491428</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.445197281809582</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.491054806780668</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.535735808573647</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.579156209682008</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.621250217117533</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.661970077451267</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.701284819540977</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.739178564621365</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.775648691241156</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.810704001761332</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.844362966304033</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.875933777770769</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.906165408589907</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.935099683149988</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.962781718620362</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.989259126812142</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-2.014581096683548</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-2.038797564720924</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-2.061958513631989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-2.084113396857146</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-2.105310675273136</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-2.124762850727743</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-2.143375756495629</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.161187056285196</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.7825400082235875</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.9017174541719642</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.983630441261617</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.035101843928008</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.060986669068825</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.065692773045286</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.052931323724062</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.026182036082932</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.9884143131994505</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.9422190280625958</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.888175006576591</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.8302668471716952</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.7701565473600425</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.7092406561612457</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.6475343980982091</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.5875774470047206</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.5300553531284045</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.4755014734329751</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.4243132294627637</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.3761466222249057</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.3321608486801086</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.2923442100079499</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.2566312151609555</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.2249087805787654</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1970239069670845</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.172791591841118</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1520024079730354</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.1344294688693212</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1198346546045532</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1079740555129406</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.09843561631611282</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.09123495680251334</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08610311941990723</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.08278731680110957</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.0810513355764524</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.08067593582209789</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.08145905090830749</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.08321575731299212</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.08577802793207966</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.0889942963926024</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.09248750305066317</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.09637798115146957</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.100562370583238</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.7046060774482231</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.5479269812677169</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4136334747329574</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3001097638904889</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.203843215161197</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1219121115439447</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.05306806271829832</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.004596867271323538</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.05238551380642054</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.09142876553171714</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.122469037273744</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.1465389254771322</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1645202410728862</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.1772231243413011</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1847307183628878</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1883823971496271</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1888123059312571</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.1865892113867897</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.182220175921018</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.1753878240419085</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.1673653123504375</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.158507732920744</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1491141175941697</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.1394376247546144</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1296908118677823</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1200498534154832</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.1106583144933438</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.1016306576138157</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.09305554448420025</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.08499894859130877</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.07712879812981957</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.06993227144058918</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.06341913151126974</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.05758213524240748</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.05240309949128318</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.04785597019351159</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.04390896823000188</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.04052625023435182</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.03766925389215199</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.03529781067866301</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.03325178739201042</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.03162579570575615</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.03037710727389178</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.4570274057208266</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.3699211514586964</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2837354992077042</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2049910447796275</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1353332808564547</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.07504865011474685</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.02375231086842399</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.01923881150905713</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.05471049136022485</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.08345920064424907</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.1057008452765726</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.1226530202389411</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.1350157689974763</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.1434200098231007</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.147633224286493</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.1490993228187871</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.1482588766161134</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1455159652496916</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.1412356123016701</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.1349508753646225</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.1279348191805303</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.1203892335198854</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.1125054900778444</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1044542289747977</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.09638271483513358</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.08841493975110527</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.08065293595292902</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07317861158358187</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.06605577466229226</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.05933217819502004</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.05267783768719442</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.04658842138121733</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.04104368971560115</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.03602670127502091</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.03151889914927636</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.02749887826689141</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.02394238282431066</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.02082277664968846</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.0181116688986452</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01577955373047705</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01366055845744755</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01190103833531435</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.01045943305420404</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.1768608373932362</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1387327669019473</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1066743533020621</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.0819922848028312</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.06392106588402718</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.05121567050887883</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.0426084561557691</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.03699200833690032</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.03347070441498805</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.03135179031068785</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.02984214870764389</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.02875617212031411</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.02787089259212861</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.02703432774372974</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.02584550304619164</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.02449093341282211</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.02299610235709976</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.0213797885946807</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.01965945967979054</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.01760980525676011</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.01547929632279007</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.01333020669650042</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.01119931993626445</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.009110567570983975</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.007080768063329228</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.005122422968572598</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.003245110404676661</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.001456199978940883</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0002387578894175752</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.00183579565732042</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.003355573378342043</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.004768618410458974</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.006067148100340616</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.007251227480204347</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.008324305730691086</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.009291397146567121</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01015825783354126</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01093098897863915</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01161582883486833</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01221903041183453</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01266735899180814</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01305603713760198</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01338979087323625</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4081372060140298</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.3638537392285245</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.3215783237699048</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.2819887280134512</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.2445934942499292</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.2094039200456299</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1765861588954367</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1463094331165262</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1186892471132477</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.09377316613549938</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.07107346151061278</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.05121887867898773</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.03405059726547387</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.01938843144154105</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.006992338429395994</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.003171617305184984</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01135024158258418</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.01777411267329559</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.02265923705059025</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.02600267960652508</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.02816918257627921</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.02935710440225152</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.02973830337951204</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.02946325027239751</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.02866401092861762</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.02745618641933553</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.02594039319968457</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.02420354505198352</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.02232004424631576</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.02035292015121677</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.01819171758110845</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.01606733179659435</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.01401747461778536</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.01206921099905929</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.01024173713178133</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.008548108669190879</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.00699642497621248</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.005590731402447716</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.00433175829208636</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.003217550010638176</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.002200643045290655</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.001321778397322178</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0005753395929141833</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>0.01886893037965486</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.03820822278283437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04914270649067593</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.05493472396635833</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05740581799898235</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.05771512428915063</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.05660724130312923</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.05456562479976091</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.05190859752805232</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0488500371602078</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.04488311850529595</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.04101076318218833</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.03724545142583851</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.03359599105528902</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02960256362178369</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02594571225300343</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.02257134907419116</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0194433743606995</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01653792185953917</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.01359795117531562</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0109793701136546</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.008631902581561325</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.006519859540531321</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.004616917267107806</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.002902796628644372</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.001361083103095719</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-2.219163690754707e-05</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001259453361656835</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.002362142610740057</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.003341041696154483</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.004152213773031262</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.004861717871226265</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.005478731530174606</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.006012801770776676</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.006473274635427633</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.006868987903737933</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.007208141490443129</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.007498257286538709</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.007746180946372872</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.007958102596292847</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.008006083827480481</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.008071252829368512</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.008142815693789931</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.2556062472993058</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.1771716154408189</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1178763648383883</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.07701701666974639</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.04877643222307831</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02920383412017277</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01562918502840979</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.006249790987829329</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.0001554413292079015</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.004420724061367546</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.006995181322277597</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.008387219775522372</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.008932000109308882</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.008863732105004078</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.008136711497943531</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.007174951845045361</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.006051292392735748</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.004825196424647524</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.003545001855818446</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.002153205925715303</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.00083570468838093</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0004043986383262688</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001560116972431472</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.002624625797543837</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.003592669533236682</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.004460948250204875</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.005228093156299596</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.005894483330161449</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.006462008967621734</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.006933824663593867</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.007154585173411316</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.007363862430460023</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.007532111245891229</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.007646736314607255</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.007704395927248002</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.007706629003135341</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.007657432432362698</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.007561931730056193</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.00742565569037923</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.007254142449699108</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.006873366165375655</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.006569079540024941</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.006296101262402859</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.1446027898978508</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.1394195605622987</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1231691378957268</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1026337491534358</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08067229169972702</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.05908900616723554</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03896373352028547</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02088819909831259</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.005131863513312866</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.008243965965076955</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.019168692774886</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.02779478839060672</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.03437913264736552</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.03917772168843195</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.04184478149877699</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.04329900683283118</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.04374734656530048</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.04337319390837</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.04233841917449672</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.0401162806496882</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.0377021351781513</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.03515444621245337</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.03252824312236125</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.02987364308272719</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.02723498018946889</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.02465038292377493</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.02215170654839571</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.01976472611516794</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.0175095069938924</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.01540088618778877</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.01318718736808769</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.01123729595926117</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.009521577732573058</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.008017382050022986</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.006706258396737213</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.005572286917031921</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.004601083527774343</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.003779229406061309</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.003093964918795515</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.002533044730153782</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.002029271404451165</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.001642411758464871</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.001355488126105126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>0.03088928357355322</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.02129548324448178</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01578767193251874</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01229740088781164</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.009797643427171323</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007932660604407523</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.006580755863157444</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.005678408430505403</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.005161481163057552</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0049550556727542</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.00494944659396017</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.005122609416265797</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.005378509606020292</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.005647916356319079</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.005842842400082477</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0059873710891419</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.006046493179112478</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.006009157977072024</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.005877197815865286</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.005609404767045799</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.005285233729650516</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.00490415452984907</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.004477840656825315</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.004021016229813169</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.003547935832292095</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.003071124447153711</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.002601060833397444</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.002146234974584406</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.001713335743779285</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.001307469204854857</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.000935530157860124</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0006063806738156066</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0003126248685376545</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5.292615350146288e-05</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.0001726349514938452</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.0003641405213874555</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.0005222657001846402</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.0006482853024706922</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.0007439483876775253</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.000811332903710407</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.000823211341032965</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.0008102632740604038</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.0007815300028659452</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.003044942062255104</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.01029885197193056</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.009724719795561684</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.003937054316018452</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.002946442804958837</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.009171542173145619</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.01412991478841602</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.01773789178573467</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.02012818128323069</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.02150301394830698</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.02161739918720324</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.02128628764914813</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.02060564366370925</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.01966439819922899</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.0181226371324144</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.01668345812662549</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.01529963590023996</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.01395771344009878</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.01265949766316655</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.0111428537715878</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.009857875889592676</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.00872604231673023</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.007710316717115784</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.006793354110034875</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.005966796226689474</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.005226061542527373</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.004567866548765176</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.003989100389849624</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.003486365016282689</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.003055837309993293</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.002631735282104573</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.002315826785068796</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.002075402651033742</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.001893704093477302</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.001760958765782143</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.001670447040275384</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.001616814538579299</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.001595376500017179</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.001601849803870718</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.001632262099343825</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.001643760431669486</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.001690421962819828</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.001756961747849286</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -652,6 +2164,132 @@
       </c>
       <c r="E13" t="n">
         <v>0.04808402812469877</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02940242014890196</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01698913894705686</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.009503250583888899</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.005251192937365756</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00302885337670157</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.002022434057400946</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.001702524210554673</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.001735804488283724</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.001918958943302736</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.002082590803702066</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.002205414485074594</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.002261644362950119</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.002240925931496674</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.002085400613626446</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.001862462817862541</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.001584494638484875</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.001261481688763101</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0009024603099882372</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0004756970144033103</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.640911729699443e-05</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.0004047573004965031</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.0008417814813771103</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.001270454797103871</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.001687427164293234</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.002089904908027664</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.002475571745105261</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.002842571317063268</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.003189495079169168</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.003515360362687557</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.003784717116815745</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.00405062236897317</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.004301100466246925</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.004531720147607319</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.004741344970106615</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.004930278604322899</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.005099446608729193</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.005250035750702958</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.005383333757236925</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.005500655821576563</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.005526088615586447</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.005575635756056076</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.005630939773708774</v>
       </c>
     </row>
   </sheetData>
